--- a/itemlist.xlsx
+++ b/itemlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\SCHOOL\DLSU\Term 2\PROLOGI - Programming Logic and design lecture\Project\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8973C6E-E3E1-4133-9DF1-D5E720126731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACF4F2-87B3-4138-BFB5-054A5CC251C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-12" windowWidth="11112" windowHeight="8928" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="0" windowWidth="11112" windowHeight="8928" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t xml:space="preserve">sample 1 </t>
-  </si>
-  <si>
     <t>sample 4</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>chu 20</t>
+  </si>
+  <si>
+    <t>RTX 4090</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,287 +506,287 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>2324</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>52524</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>34324</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>455</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/itemlist.xlsx
+++ b/itemlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\SCHOOL\DLSU\Term 2\PROLOGI - Programming Logic and design lecture\Project\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katrina Dela Cruz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACF4F2-87B3-4138-BFB5-054A5CC251C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="11112" windowHeight="8928" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,142 +26,145 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>Item id</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
-    <t>sample 6</t>
-  </si>
-  <si>
-    <t>sample 7</t>
-  </si>
-  <si>
-    <t>sample 8</t>
-  </si>
-  <si>
-    <t>sample 9</t>
-  </si>
-  <si>
-    <t>sample 10</t>
-  </si>
-  <si>
-    <t>sample 11</t>
-  </si>
-  <si>
-    <t>sample 12</t>
-  </si>
-  <si>
-    <t>sample 13</t>
-  </si>
-  <si>
-    <t>sample 14</t>
-  </si>
-  <si>
-    <t>sample 15</t>
-  </si>
-  <si>
-    <t>sample 16</t>
-  </si>
-  <si>
-    <t>sample 17</t>
-  </si>
-  <si>
-    <t>sample 18</t>
-  </si>
-  <si>
-    <t>sample 19</t>
-  </si>
-  <si>
-    <t>sample 20</t>
-  </si>
-  <si>
-    <t>sample 2</t>
-  </si>
-  <si>
-    <t>sample 3</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>chu 1</t>
-  </si>
-  <si>
-    <t>chu 2</t>
-  </si>
-  <si>
-    <t>chu 3</t>
-  </si>
-  <si>
-    <t>chu 4</t>
-  </si>
-  <si>
-    <t>chu 5</t>
-  </si>
-  <si>
-    <t>chu 6</t>
-  </si>
-  <si>
-    <t>chu 7</t>
-  </si>
-  <si>
-    <t>chu 8</t>
-  </si>
-  <si>
-    <t>chu 9</t>
-  </si>
-  <si>
-    <t>chu 10</t>
-  </si>
-  <si>
-    <t>chu 11</t>
-  </si>
-  <si>
-    <t>chu 12</t>
-  </si>
-  <si>
-    <t>chu 13</t>
-  </si>
-  <si>
-    <t>chu 14</t>
-  </si>
-  <si>
-    <t>chu 15</t>
-  </si>
-  <si>
-    <t>chu 16</t>
-  </si>
-  <si>
-    <t>chu 17</t>
-  </si>
-  <si>
-    <t>chu 18</t>
-  </si>
-  <si>
-    <t>chu 19</t>
-  </si>
-  <si>
-    <t>chu 20</t>
-  </si>
-  <si>
-    <t>RTX 4090</t>
+    <t>ITEM ID</t>
+  </si>
+  <si>
+    <t>ITEM NAME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TravelPro™ G15 12G (GTX 1650)</t>
+  </si>
+  <si>
+    <t>12th Gen Intel® Core™ i7 Processors, NVIDIA® GeForce® GTX-1650, 15inch Super Narrow LED Panel, Up to 64GB DDR4 System Memory and 1TB M.2 SSD supports additional 2.5” SATA SSD.</t>
+  </si>
+  <si>
+    <t>Xitrix GX3 (Z790) Elite Gaming PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5-13400F Processor, nVidia GeForce RTX-3050, Z790 Aorus Elite AX Gaming Motherboard, 32GB DDR5 5200 MHz UDIMM Memory Kit, 500GB PCIe M.2 2280SS SSD PCIe Gen 3 </t>
+  </si>
+  <si>
+    <t>Xitrix® GX1R NANO AMD Gaming PC</t>
+  </si>
+  <si>
+    <t>Support AMD Ryzen 5000 Series Processor, AL-MG Magnesium Aluminum Alloy ITX Chassis, Up to 64GB Memory; M.2 PCIe 4.0 SSD and 2.5” HDD, Supports Up to GTX and RTX-30 Series Graphic Cards, Gigabit LAN and 802.11ac WiFi Module</t>
+  </si>
+  <si>
+    <t>TravelPro™ U1412 Premium Ultrabook</t>
+  </si>
+  <si>
+    <t>12th Gen Intel® Core™ i3, i5 and i7 Processors, 14” Super Narrow Full HD IPS Panel, Up to 64GB DDR4 System Memory, Up to 4TB M.2 SSD, Aluminum Chassis; LED Backlight Keyboard; Biometric Windows Hello Camera, Intel® Wi-Fi 6 AX211 Gig+</t>
+  </si>
+  <si>
+    <t>WFP-2413 24" Full HD 75Hz Professional VA Monitor</t>
+  </si>
+  <si>
+    <t>FHD resolution (1920 x 1080), Frameless edge-to-edge screen, 75Hz Refresh Rate,  Flicker-Free Technology, Blue Light Filter</t>
+  </si>
+  <si>
+    <t>DeskFrame™ E305R AMD Desktop</t>
+  </si>
+  <si>
+    <t>Supports AMD Ryzen™ 5000 Series/ Ryzen™ 5000 G-Series/ Ryzen™ 4000 G-Series and Ryzen™ 3000 Series Processors, Up to 64GB DDR4 System Memory, Supports Dual Drive configuration, Small Form Factor Chassis / Compact Tool Free Chassis</t>
+  </si>
+  <si>
+    <t>Xitrix® GX3R (X670) Gaming PC</t>
+  </si>
+  <si>
+    <t>AMD Ryzen™ 7000 Series Processor, AMD X670 Chipset Motherboard, Dual Channel DDR5 4*SMD DIMMs with AMD EXPO™ &amp; Intel® XMP Memory Module Support, Next Generation Storage：1*PCIe 5.0 x4 and 3*PCIe 4.0 x4 M.2 Connectors, Fast 2.5GbE LAN with Bandwidth Management; AMD Wi-Fi 6E RZ616</t>
+  </si>
+  <si>
+    <t>Xitrix® GL1 (H610) Gaming PC</t>
+  </si>
+  <si>
+    <t>Support 12th Gen Intel® Core™ Series Processor, Intel H610 Chipset, Up to 64GB DDR4 RGB Memory, Supports GeForce RTX 30 Series; GeForce GT and GTX Series Graphic Cards, 500 Watts Modular RGB series Elite Power Supply</t>
+  </si>
+  <si>
+    <t>Xitrix® GX1 NANO Gaming PC</t>
+  </si>
+  <si>
+    <t>Support 12th Gen Intel® Core™ Series Processor, AL-MG Magnesium Aluminum Alloy ITX Chassis, Up to 64GB Memory; M.2 PCIe 4.0 SSD and 2.5” HDD, Supports Up to GTX and RTX-30 Series Graphic Cards, Gigabit LAN and 802.11ac WiFi Module</t>
+  </si>
+  <si>
+    <t>Xitrix® G27 12G Gaming AIO PC</t>
+  </si>
+  <si>
+    <t>Support 12th Gen Intel® Core™ Series Processor, Up to 64GB DDR4 RGB Memory, Supports GeForce GT Series Graphic Cards, 27inch FHD Borderless IPS Display, Up to Dual 2TB Internal SSD Storage and M.2 SSD</t>
+  </si>
+  <si>
+    <t>DeskFrame™ E310 12G CFF</t>
+  </si>
+  <si>
+    <t>Support 12TH Gen Intel® Core™ Series Processor, Up to 64GB DDR4 System Memory, Compact Form Factor Chassis, Up to 6GB Discrete Video Card, Energy Star Certified, Microsoft Windows 10 or 11 Operating System</t>
+  </si>
+  <si>
+    <t>Xitrix® GX2 (Z690 D4) Gaming PC</t>
+  </si>
+  <si>
+    <t>Supports Up To 12th Gen Intel Core i9 Processors, Z690 Gaming Motherboard, RTX-30 Series Series Graphics, Up to 128GB DDR4 System Memory, Ultra-Fast NVMe PCIe 4.0, 2.5 Gigabit LAN / Wifi 6 Wireless, NZXT H510 Flow Gaming Chassis</t>
+  </si>
+  <si>
+    <t>TravelPro™ GX15 (RTX3070) 300Hz</t>
+  </si>
+  <si>
+    <t>8 Cores 10th Gen Intel® Core™ i7 Processors, NVIDIA® GeForce® RTX3060 / RTX-3070, 15inch Narrow LED Panel (144Hz or 300Hz), Up to 64GB DDR4 System Memory, Up to Dual 2TB M.2 SSD ( RAID 0/1), Built in Gamma Secure pad Biometric</t>
+  </si>
+  <si>
+    <t>TravelPro™ M15</t>
+  </si>
+  <si>
+    <t>11th Gen Intel® Core™ i5 and i7 Processors, 15.6” Super Narrow Full HD IPS Panel, Capacitive Touch Screen w/ 100% SRGB, Up to 8TB M.2 NVME SSD, Two Thunderbolt™ 4 (USB 4.0 Type-C) ports, RGB light bar with support for Alexa personal assistant, CNC anodized aluminum chassis</t>
+  </si>
+  <si>
+    <t>CANON G3020 Wireless 3IN1(Print, Copy, Scan) CIS Printer</t>
+  </si>
+  <si>
+    <t>Easy Refillable Ink Tank, Wireless, All-In-One Printer for High Volume Printing</t>
+  </si>
+  <si>
+    <t>Xitrix® GX48 48" 4K UHD 138Hz OLED Gaming Monitor</t>
+  </si>
+  <si>
+    <t>48-inch 4K UHD Display: UHD 3840 x 2160p Resolution HDR 400 Professional Elite Monitor, 144Hz Refresh Rate, Flicker Free, Low Blue Light &amp; FreeSync / G-Sync Compatible, HDMI 2.1, Display Port 1.4, Type C Connectivity</t>
+  </si>
+  <si>
+    <t>Xitrix® GX2R Creator PC</t>
+  </si>
+  <si>
+    <t>NZXT H510i Gaming Chassis — White, Ryzen™ 7 5800X Processors, EK-AIO 240 D-RGB Liquid Cooling Solution w/ Dynamic Addressable D-RGB lighting, B550 Creator  Motherboard, nVidia GeForce RTX 3090 24GB GDDR6X / 19.5 Gbps / 384-bit</t>
+  </si>
+  <si>
+    <t>OptoFrame™ W130 SFF</t>
+  </si>
+  <si>
+    <t>Support Intel® Xeon™ E-2200 Series Processors, Up to 128GB ECC DDR4 System Memory, Up to Dual Hard Drive Configuration; RAID Configuration, Optional Professional Graphic Cards NVIDIA Quadro P1000; NVIDIA Quadro P620; NVIDIA Quadro K420</t>
+  </si>
+  <si>
+    <t>Xitrix® 90W LAPTOP Power Adapter</t>
+  </si>
+  <si>
+    <t>Input: 100-240V, 50-60Hz 1.5A, Output: 19V-4.7A 90Watt, AC power cord: European, U.S., British, Australian, etc., Compatible with xitrix TravelPro D-500, G-14 and U-1412</t>
+  </si>
+  <si>
+    <t>Crucial P5 Plus PCIe 4.0 M.2 2280SS Gaming SSD</t>
+  </si>
+  <si>
+    <t>Delivers remarkable speed and data protection with sequential reads up to 6600MB/s1 for transformative computing, engineered by Micron® with the latest Gen4 NVMe™ technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;₱&quot;#,##0.00;[Red]\-&quot;₱&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,10 +200,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,311 +493,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="221.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1">
-        <v>110000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>52800</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>93800</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>46800</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>323</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42800</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6800</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2324</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20800</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>52524</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>116800</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24800</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>34324</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46800</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39800</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>455</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24800</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>67800</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>102800</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>46990</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>300</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11400</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>79800</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>400</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>246800</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>450</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1800</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
         <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4800</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
